--- a/source_plates/211214_exCRISPRa.xlsx
+++ b/source_plates/211214_exCRISPRa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8E72D4-C96B-4C49-BF19-63BF478F42DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0E54D-A723-4441-B454-7C447AC63570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
   </bookViews>
@@ -558,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -597,6 +597,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -649,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -668,6 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D29ACC-8067-425A-9239-04930501B2E7}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2164,9 +2172,12 @@
       <c r="C52" t="s">
         <v>131</v>
       </c>
+      <c r="D52">
+        <v>172.37</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -2183,7 +2194,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -2200,7 +2211,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -2226,6 +2237,12 @@
       <c r="C56" t="s">
         <v>134</v>
       </c>
+      <c r="D56" s="14">
+        <v>200</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="5" t="s">
@@ -2237,6 +2254,12 @@
       <c r="C57" t="s">
         <v>135</v>
       </c>
+      <c r="D57" s="14">
+        <v>200</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="5" t="s">
@@ -2248,6 +2271,12 @@
       <c r="C58" t="s">
         <v>136</v>
       </c>
+      <c r="D58">
+        <v>184.40311838844846</v>
+      </c>
+      <c r="E58">
+        <v>45</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="5" t="s">
@@ -2259,9 +2288,15 @@
       <c r="C59" t="s">
         <v>137</v>
       </c>
+      <c r="D59">
+        <v>209.85671936758894</v>
+      </c>
+      <c r="E59">
+        <v>45</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -2278,7 +2313,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -2295,7 +2330,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -2312,7 +2347,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -2329,7 +2364,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -2346,7 +2381,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -2364,7 +2399,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -2381,7 +2416,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -2398,7 +2433,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -2416,7 +2451,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -2433,7 +2468,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B70" s="11" t="s">
@@ -2459,6 +2494,12 @@
       <c r="C71" t="s">
         <v>166</v>
       </c>
+      <c r="D71">
+        <v>131.5</v>
+      </c>
+      <c r="E71">
+        <v>60</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="5" t="s">
@@ -2469,6 +2510,12 @@
       </c>
       <c r="C72" t="s">
         <v>167</v>
+      </c>
+      <c r="D72">
+        <v>215.49538586350269</v>
+      </c>
+      <c r="E72">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
